--- a/report_carbon_tax_6000.xlsx
+++ b/report_carbon_tax_6000.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG77"/>
+  <dimension ref="A1:AC77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,26 +574,6 @@
           <t>SD EOD 6</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Generator Output EOD 6</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Committment Status EOD 6</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>SU EOD 6</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>SD EOD 6</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -683,18 +663,6 @@
       <c r="AC2" t="n">
         <v>0</v>
       </c>
-      <c r="AD2" t="n">
-        <v>1244</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -782,18 +750,6 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1235</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -885,18 +841,6 @@
       <c r="AC4" t="n">
         <v>0</v>
       </c>
-      <c r="AD4" t="n">
-        <v>881</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -986,18 +930,6 @@
       <c r="AC5" t="n">
         <v>0</v>
       </c>
-      <c r="AD5" t="n">
-        <v>684.7</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1087,18 +1019,6 @@
       <c r="AC6" t="n">
         <v>0</v>
       </c>
-      <c r="AD6" t="n">
-        <v>620.2</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1111,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1129,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>612</v>
+        <v>463.969137932232</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -1186,18 +1106,6 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>612</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1206,19 +1114,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>372.2</v>
+        <v>252.2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>372.2</v>
+        <v>362.7378521297707</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1230,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>372.2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N8" t="n">
-        <v>372.2</v>
+        <v>271.793676869601</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1287,18 +1195,6 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>372.2</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1307,19 +1203,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>372.2</v>
+        <v>252.2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>372.2</v>
+        <v>362.7378521297707</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1331,25 +1227,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>372.2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N9" t="n">
-        <v>372.2</v>
+        <v>271.7936768696001</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1388,18 +1284,6 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>372.2</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,16 +1292,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
         <v>244</v>
@@ -1432,16 +1316,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N10" t="n">
         <v>244</v>
@@ -1489,18 +1373,6 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>244</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1509,16 +1381,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>243.5</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
         <v>243.5</v>
@@ -1533,16 +1405,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>243.5</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N11" t="n">
         <v>243.5</v>
@@ -1590,18 +1462,6 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>243.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1610,40 +1470,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>149.8</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F12" t="n">
-        <v>149.8</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>149.8</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N12" t="n">
         <v>149.8</v>
@@ -1691,18 +1551,6 @@
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1711,16 +1559,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144.4</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
         <v>144.4</v>
@@ -1735,28 +1583,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>144.4</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N13" t="n">
-        <v>144.4</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R13" t="n">
         <v>144.4</v>
@@ -1792,18 +1640,6 @@
         <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>144.4</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,40 +1648,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N14" t="n">
         <v>82</v>
@@ -1893,18 +1729,6 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>82</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1913,16 +1737,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
         <v>80</v>
@@ -1937,16 +1761,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>80.00000000000003</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N15" t="n">
         <v>80</v>
@@ -1994,18 +1818,6 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2014,52 +1826,52 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>47.9</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>47.9</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>47.9</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N16" t="n">
-        <v>47.9</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R16" t="n">
         <v>47.9</v>
@@ -2095,18 +1907,6 @@
         <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2115,52 +1915,52 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N17" t="n">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R17" t="n">
         <v>47.5</v>
@@ -2196,18 +1996,6 @@
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2299,18 +2087,6 @@
       <c r="AC18" t="n">
         <v>0</v>
       </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2400,18 +2176,6 @@
       <c r="AC19" t="n">
         <v>0</v>
       </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2501,18 +2265,6 @@
       <c r="AC20" t="n">
         <v>0</v>
       </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2602,18 +2354,6 @@
       <c r="AC21" t="n">
         <v>0</v>
       </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2703,18 +2443,6 @@
       <c r="AC22" t="n">
         <v>0</v>
       </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2804,18 +2532,6 @@
       <c r="AC23" t="n">
         <v>0</v>
       </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2905,18 +2621,6 @@
       <c r="AC24" t="n">
         <v>0</v>
       </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2980,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2992,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -3004,18 +2708,6 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3107,18 +2799,6 @@
       <c r="AC26" t="n">
         <v>0</v>
       </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3208,18 +2888,6 @@
       <c r="AC27" t="n">
         <v>0</v>
       </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3309,18 +2977,6 @@
       <c r="AC28" t="n">
         <v>0</v>
       </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3410,18 +3066,6 @@
       <c r="AC29" t="n">
         <v>0</v>
       </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3511,18 +3155,6 @@
       <c r="AC30" t="n">
         <v>0</v>
       </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3612,18 +3244,6 @@
       <c r="AC31" t="n">
         <v>0</v>
       </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3713,25 +3333,13 @@
       <c r="AC32" t="n">
         <v>0</v>
       </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>664.7415060000005</v>
+        <v>693.8</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -3755,16 +3363,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>693.8</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>693.8</v>
@@ -3812,18 +3420,6 @@
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>693.8</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3832,16 +3428,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>685.3</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>685.3</v>
@@ -3856,16 +3452,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>685.3</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>685.3</v>
@@ -3913,18 +3509,6 @@
         <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>685.3</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3981,16 +3565,16 @@
         <v>11</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>311.9558660000013</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -4014,18 +3598,6 @@
         <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4034,19 +3606,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>110.9599999999999</v>
+        <v>110.96</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>110.9599999999999</v>
+        <v>110.96</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -4082,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.9599999999999</v>
+        <v>110.96</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
@@ -4106,7 +3678,7 @@
         <v>15</v>
       </c>
       <c r="Z36" t="n">
-        <v>110.9599999999999</v>
+        <v>110.96</v>
       </c>
       <c r="AA36" t="n">
         <v>1</v>
@@ -4115,18 +3687,6 @@
         <v>18</v>
       </c>
       <c r="AC36" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>110.96</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG36" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4135,7 +3695,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>115.5</v>
+        <v>515.5</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -4147,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>301.8888139999999</v>
+        <v>515.5</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -4156,10 +3716,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.1000000000007</v>
+        <v>515.5</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
@@ -4171,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>249.7482899999998</v>
+        <v>515.5</v>
       </c>
       <c r="O37" t="n">
         <v>1</v>
@@ -4192,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>515.5</v>
@@ -4216,18 +3776,6 @@
         <v>0</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>515.5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4319,18 +3867,6 @@
       <c r="AC38" t="n">
         <v>0</v>
       </c>
-      <c r="AD38" t="n">
-        <v>508</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4420,18 +3956,6 @@
       <c r="AC39" t="n">
         <v>0</v>
       </c>
-      <c r="AD39" t="n">
-        <v>490.4</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4521,37 +4045,25 @@
       <c r="AC40" t="n">
         <v>0</v>
       </c>
-      <c r="AD40" t="n">
-        <v>447.9</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>143.941505999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>54.17999999999995</v>
+        <v>186.6931097404681</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -4563,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>54.18</v>
+        <v>125.5535500677665</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
@@ -4575,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>54.17999999999995</v>
+        <v>180.0609362607963</v>
       </c>
       <c r="O41" t="n">
         <v>1</v>
@@ -4599,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>270.4792559999996</v>
+        <v>270.4792559999913</v>
       </c>
       <c r="W41" t="n">
         <v>1</v>
@@ -4620,18 +4132,6 @@
         <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>270.9</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4723,18 +4223,6 @@
       <c r="AC42" t="n">
         <v>5</v>
       </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4824,18 +4312,6 @@
       <c r="AC43" t="n">
         <v>0</v>
       </c>
-      <c r="AD43" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4925,18 +4401,6 @@
       <c r="AC44" t="n">
         <v>0</v>
       </c>
-      <c r="AD44" t="n">
-        <v>247.8</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -5026,18 +4490,6 @@
       <c r="AC45" t="n">
         <v>0</v>
       </c>
-      <c r="AD45" t="n">
-        <v>247.8</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -5068,10 +4520,10 @@
         <v>11</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>48.98000000000025</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -5080,10 +4532,10 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>48.98</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -5104,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>48.9800000000604</v>
+        <v>48.98</v>
       </c>
       <c r="W46" t="n">
         <v>1</v>
@@ -5125,18 +4577,6 @@
         <v>0</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>244.9</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5228,18 +4668,6 @@
       <c r="AC47" t="n">
         <v>7</v>
       </c>
-      <c r="AD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5291,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -5327,18 +4755,6 @@
         <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG48" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5371,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>218.622688000001</v>
+        <v>238.3</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -5428,18 +4844,6 @@
         <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>238.3</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5481,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -5493,19 +4897,19 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
         <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>212.9391576791816</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0</v>
-      </c>
-      <c r="U50" t="n">
-        <v>0</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -5529,18 +4933,6 @@
         <v>0</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>236.4</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5579,7 +4971,7 @@
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -5621,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="Z51" t="n">
-        <v>30.94000000000074</v>
+        <v>30.93999999999938</v>
       </c>
       <c r="AA51" t="n">
         <v>1</v>
@@ -5630,18 +5022,6 @@
         <v>12</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>30.94000000000179</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5695,19 +5075,19 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
         <v>5</v>
-      </c>
-      <c r="R52" t="n">
-        <v>99.01670832081955</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
-      <c r="T52" t="n">
-        <v>0</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5731,18 +5111,6 @@
         <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG52" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5834,18 +5202,6 @@
       <c r="AC53" t="n">
         <v>4</v>
       </c>
-      <c r="AD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -5897,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -5933,18 +5289,6 @@
         <v>0</v>
       </c>
       <c r="AC54" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG54" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5986,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -6022,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
@@ -6034,18 +5378,6 @@
         <v>0</v>
       </c>
       <c r="AC55" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG55" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6099,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -6135,18 +5467,6 @@
         <v>0</v>
       </c>
       <c r="AC56" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG56" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6238,18 +5558,6 @@
       <c r="AC57" t="n">
         <v>0</v>
       </c>
-      <c r="AD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -6265,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -6289,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -6301,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -6313,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -6337,18 +5645,6 @@
         <v>0</v>
       </c>
       <c r="AC58" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG58" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6357,16 +5653,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -6438,18 +5734,6 @@
         <v>0</v>
       </c>
       <c r="AC59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6541,18 +5825,6 @@
       <c r="AC60" t="n">
         <v>0</v>
       </c>
-      <c r="AD60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6642,18 +5914,6 @@
       <c r="AC61" t="n">
         <v>0</v>
       </c>
-      <c r="AD61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -6743,18 +6003,6 @@
       <c r="AC62" t="n">
         <v>0</v>
       </c>
-      <c r="AD62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -6844,18 +6092,6 @@
       <c r="AC63" t="n">
         <v>0</v>
       </c>
-      <c r="AD63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -6945,18 +6181,6 @@
       <c r="AC64" t="n">
         <v>0</v>
       </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -7046,18 +6270,6 @@
       <c r="AC65" t="n">
         <v>0</v>
       </c>
-      <c r="AD65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -7147,18 +6359,6 @@
       <c r="AC66" t="n">
         <v>0</v>
       </c>
-      <c r="AD66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -7248,18 +6448,6 @@
       <c r="AC67" t="n">
         <v>0</v>
       </c>
-      <c r="AD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -7349,18 +6537,6 @@
       <c r="AC68" t="n">
         <v>0</v>
       </c>
-      <c r="AD68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -7450,18 +6626,6 @@
       <c r="AC69" t="n">
         <v>0</v>
       </c>
-      <c r="AD69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -7551,18 +6715,6 @@
       <c r="AC70" t="n">
         <v>0</v>
       </c>
-      <c r="AD70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -7652,18 +6804,6 @@
       <c r="AC71" t="n">
         <v>0</v>
       </c>
-      <c r="AD71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -7753,18 +6893,6 @@
       <c r="AC72" t="n">
         <v>0</v>
       </c>
-      <c r="AD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -7854,18 +6982,6 @@
       <c r="AC73" t="n">
         <v>0</v>
       </c>
-      <c r="AD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -7955,18 +7071,6 @@
       <c r="AC74" t="n">
         <v>0</v>
       </c>
-      <c r="AD74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -8056,18 +7160,6 @@
       <c r="AC75" t="n">
         <v>0</v>
       </c>
-      <c r="AD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -8157,18 +7249,6 @@
       <c r="AC76" t="n">
         <v>0</v>
       </c>
-      <c r="AD76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -8256,18 +7336,6 @@
         <v>0</v>
       </c>
       <c r="AC77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG77" t="n">
         <v>0</v>
       </c>
     </row>
